--- a/data/income_statement/2digits/size/21_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/21_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>21-Manufacture of basic pharmaceutical products and pharmaceutical preparations</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>21-Manufacture of basic pharmaceutical products and pharmaceutical preparations</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,839 +841,949 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>151965.408</v>
+        <v>174600.78576</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>150096.95036</v>
+        <v>174719.18214</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>132392.98009</v>
+        <v>148873.97468</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>129302.48245</v>
+        <v>151851.82111</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>223288.23391</v>
+        <v>276740.82803</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>216440.67005</v>
+        <v>271660.35752</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>244850.3856</v>
+        <v>296103.46738</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>247445.59397</v>
+        <v>299311.91995</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>248818.54681</v>
+        <v>295342.85105</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>613893.81871</v>
+        <v>689018.23202</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>781453.5274299999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>843231.90224</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1026917.297</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>138208.05918</v>
+        <v>160254.05812</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>130788.68084</v>
+        <v>155268.00984</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>112939.32044</v>
+        <v>126929.49775</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>112803.65574</v>
+        <v>134546.89484</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>196628.38808</v>
+        <v>236088.30809</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>182445.86472</v>
+        <v>223936.28656</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>210438.22103</v>
+        <v>256133.03987</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>204384.05215</v>
+        <v>253561.03885</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>211515.57429</v>
+        <v>251696.14478</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>484445.79876</v>
+        <v>546984.44176</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>645725.5080800001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>705327.5369900001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>840733.607</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>13095.00175</v>
+        <v>13513.9684</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>16333.36782</v>
+        <v>16449.34209</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>16031.60038</v>
+        <v>16290.23702</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>15173.97076</v>
+        <v>14724.5311</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>21666.90271</v>
+        <v>27446.21279</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>31718.74758</v>
+        <v>34410.44338</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>31101.08653</v>
+        <v>35066.6198</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>39915.64350999999</v>
+        <v>40341.16217</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>34243.11677</v>
+        <v>38120.98707</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>120980.7117</v>
+        <v>131403.53164</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>112606.91852</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>111317.84013</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>163495.95</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>662.3470699999999</v>
+        <v>832.75924</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>2974.9017</v>
+        <v>3001.83021</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>3422.05927</v>
+        <v>5654.23991</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>1324.85595</v>
+        <v>2580.39517</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>4992.94312</v>
+        <v>13206.30715</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>2276.05775</v>
+        <v>13313.62758</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>3311.07804</v>
+        <v>4903.80771</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>3145.89831</v>
+        <v>5409.71893</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>3059.85575</v>
+        <v>5525.7192</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>8467.30825</v>
+        <v>10630.25862</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>23121.10083</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>26586.52512</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>22687.74</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>4955.847110000001</v>
+        <v>8292.324139999999</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>5408.28779</v>
+        <v>6795.279320000001</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>2925.05739</v>
+        <v>3243.2268</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>7091.47672</v>
+        <v>9847.928089999999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>16525.58966</v>
+        <v>19002.83285</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>13865.06731</v>
+        <v>15920.0235</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>18567.74476</v>
+        <v>19647.76579</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>15714.1237</v>
+        <v>19023.4317</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>10231.53499</v>
+        <v>12846.04424</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>35406.10927</v>
+        <v>35931.37167</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>30747.39288</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>39220.36197999999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>60510.76</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>2868.11125</v>
+        <v>3455.58356</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>2286.91185</v>
+        <v>3003.57879</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>1756.89044</v>
+        <v>2023.74662</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>4625.0897</v>
+        <v>4958.98084</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>4692.01259</v>
+        <v>5989.63534</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>3869.41355</v>
+        <v>4424.98203</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>5649.999839999999</v>
+        <v>6236.88455</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>4959.01811</v>
+        <v>6337.70945</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>4647.620730000001</v>
+        <v>5179.789110000001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>9784.68723</v>
+        <v>9849.568140000001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>11806.39822</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>13339.37902</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>28745.725</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>2086.96335</v>
+        <v>4074.84678</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>3111.92248</v>
+        <v>3778.91813</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1151.45765</v>
+        <v>1202.77088</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1442.8489</v>
+        <v>2090.2981</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>6546.64585</v>
+        <v>7730.89462</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>4804.958009999999</v>
+        <v>6230.85515</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>11386.24368</v>
+        <v>11879.38</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>2732.32469</v>
+        <v>4153.32693</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>5471.189530000001</v>
+        <v>7573.66291</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>23623.4706</v>
+        <v>24079.52077</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>16706.27543</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>23652.2222</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>24989.495</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>0.77251</v>
+        <v>761.8938000000001</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>9.45346</v>
+        <v>12.7824</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>16.7093</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>1023.53812</v>
+        <v>2798.64915</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>5286.931219999999</v>
+        <v>5282.30289</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>5190.69575</v>
+        <v>5264.186320000001</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>1531.50124</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>8022.780900000001</v>
+        <v>8532.39532</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>112.72473</v>
+        <v>92.59222</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1997.95144</v>
+        <v>2002.28276</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>2234.71923</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>2228.76076</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>6775.54</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>147009.56089</v>
+        <v>166308.46162</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>144688.66257</v>
+        <v>167923.90282</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>129467.9227</v>
+        <v>145630.74788</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>122211.00573</v>
+        <v>142003.89302</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>206762.64425</v>
+        <v>257737.99518</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>202575.60274</v>
+        <v>255740.33402</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>226282.64084</v>
+        <v>276455.70159</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>231731.47027</v>
+        <v>280288.48825</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>238587.01182</v>
+        <v>282496.80681</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>578487.70944</v>
+        <v>653086.86035</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>750706.13455</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>804011.54026</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>966406.537</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>102238.56272</v>
+        <v>114764.13316</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>101267.31645</v>
+        <v>117033.19533</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>92833.84698</v>
+        <v>104465.92666</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>85124.77615999999</v>
+        <v>98873.60821999999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>146606.91621</v>
+        <v>177496.48369</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>138808.30135</v>
+        <v>177109.722</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>148158.39686</v>
+        <v>186405.99361</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>157705.36933</v>
+        <v>195161.35138</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>153175.86672</v>
+        <v>189203.07341</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>391978.44038</v>
+        <v>439201.32455</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>489859.5310899999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>527346.14653</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>609535.899</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>67285.02273</v>
+        <v>77813.56107</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>72889.02638</v>
+        <v>88420.50023000001</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>64397.43011</v>
+        <v>72143.34022</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>68040.78241</v>
+        <v>82202.81226999999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>119950.61336</v>
+        <v>148537.81542</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>113035.97053</v>
+        <v>147917.47375</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>121501.59293</v>
+        <v>152354.37162</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>101143.78043</v>
+        <v>135478.90973</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>101563.05535</v>
+        <v>131138.04609</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>258519.08962</v>
+        <v>296445.75647</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>308481.58553</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>342796.57555</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>404607.141</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>28800.89065</v>
+        <v>30813.33749</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>17830.01358</v>
+        <v>17896.10541</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>18453.9052</v>
+        <v>22548.87367</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>15114.70437</v>
+        <v>15044.40662</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>20878.91877</v>
+        <v>23096.14355</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>21256.6088</v>
+        <v>20378.12108</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>21107.3777</v>
+        <v>25306.42627</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>42551.09007</v>
+        <v>43009.2666</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>44460.37177000001</v>
+        <v>47503.37357</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>126238.75634</v>
+        <v>134264.05884</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>164764.60374</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>166681.18826</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>192788.875</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>5706.44708</v>
+        <v>5692.18194</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>8481.37363</v>
+        <v>8801.887949999998</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>7724.58388</v>
+        <v>7403.43728</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1309.81949</v>
+        <v>913.8253599999999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>5097.27937</v>
+        <v>4898.14378</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>4235.043769999999</v>
+        <v>8388.12393</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>4800.99815</v>
+        <v>7995.44251</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>12982.04357</v>
+        <v>15142.12498</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>5500.55393</v>
+        <v>9373.15121</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>6323.547</v>
+        <v>8089.35714</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>12662.35074</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>13813.3925</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>11279.808</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>446.20226</v>
+        <v>445.0526599999999</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>2066.90286</v>
+        <v>1914.70174</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>2257.92779</v>
+        <v>2370.27549</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>659.46989</v>
+        <v>712.5639699999999</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>680.10471</v>
+        <v>964.3809399999999</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>280.67825</v>
+        <v>426.00324</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>748.4280799999999</v>
+        <v>749.75321</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>1028.45526</v>
+        <v>1531.05007</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>1651.88567</v>
+        <v>1188.50254</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>897.04742</v>
+        <v>402.1521</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>3950.99108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>4054.99022</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>860.075</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>44770.99817</v>
+        <v>51544.32846</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>43421.34611999999</v>
+        <v>50890.70749</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>36634.07572</v>
+        <v>41164.82122</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>37086.22957</v>
+        <v>43130.28479999999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>60155.72804</v>
+        <v>80241.51148999999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>63767.30139</v>
+        <v>78630.61202</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>78124.24398</v>
+        <v>90049.70798000001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>74026.10094</v>
+        <v>85127.13687</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>85411.14509999999</v>
+        <v>93293.73340000001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>186509.26906</v>
+        <v>213885.5358</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>260846.60346</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>276665.39373</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>356870.638</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>28488.14223</v>
+        <v>44042.81018</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>28473.65692</v>
+        <v>38281.44518</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>25645.28378</v>
+        <v>35943.24969</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>25875.67948</v>
+        <v>31872.01952</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>46598.54688</v>
+        <v>70165.73795000001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>49300.19406</v>
+        <v>70302.47175</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>58568.5832</v>
+        <v>81177.30129</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>66550.95856</v>
+        <v>82700.96781999999</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>67132.17239000001</v>
+        <v>76570.633</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>141475.90729</v>
+        <v>157377.25802</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>179940.39961</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>210016.03277</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>218159.315</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>845.68822</v>
+        <v>1391.88672</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>841.81115</v>
+        <v>927.36803</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>1172.53131</v>
+        <v>2766.09864</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1244.31893</v>
+        <v>2275.79884</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1005.03316</v>
+        <v>2320.5598</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>554.5728399999999</v>
+        <v>712.52027</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>912.58189</v>
+        <v>1330.11182</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>1073.85478</v>
+        <v>1205.43549</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>198.20768</v>
+        <v>727.5469499999999</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>691.29926</v>
+        <v>822.6331600000001</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>1056.008</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>2409.56369</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>1627.007</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>11755.14324</v>
+        <v>19309.7897</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>10914.88009</v>
+        <v>15360.65714</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>10372.82973</v>
+        <v>13427.20528</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>10689.06018</v>
+        <v>13522.6868</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>18557.65759</v>
+        <v>29408.68031</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>19494.23689</v>
+        <v>29881.96855</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>22448.87439</v>
+        <v>27710.13393</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>29456.71594</v>
+        <v>34337.65765</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>35497.38308</v>
+        <v>38648.95359</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>60491.90848</v>
+        <v>62659.45005</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>88089.72409</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>102950.81109</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>106727.976</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>15887.31077</v>
+        <v>23341.13376</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>16716.96568</v>
+        <v>21993.42001</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>14099.92274</v>
+        <v>19749.94577</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>13942.30037</v>
+        <v>16073.53388</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>27035.85613</v>
+        <v>38436.49784</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>29251.38433</v>
+        <v>39707.98293</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>35207.12692</v>
+        <v>52137.05554</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>36020.38784</v>
+        <v>47157.87468</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>31436.58163</v>
+        <v>37194.13246</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>80292.69954999999</v>
+        <v>93895.17481</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>90794.66752</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>104655.65799</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>109804.332</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>16282.85594</v>
+        <v>7501.51828</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>14947.6892</v>
+        <v>12609.26231</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>10988.79194</v>
+        <v>5221.57153</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>11210.55009</v>
+        <v>11258.26528</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>13557.18116</v>
+        <v>10075.77354</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>14467.10733</v>
+        <v>8328.14027</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>19555.66078</v>
+        <v>8872.40669</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>7475.14238</v>
+        <v>2426.16905</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>18278.97271</v>
+        <v>16723.1004</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>45033.36177</v>
+        <v>56508.27778</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>80906.20384999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>66649.36096000001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>138711.323</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>3911.84051</v>
+        <v>12701.99822</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>3146.88967</v>
+        <v>9606.173769999999</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>3090.39463</v>
+        <v>6728.909549999999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2255.60616</v>
+        <v>3413.79302</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>3915.65096</v>
+        <v>6734.174849999999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>3443.60448</v>
+        <v>6217.80139</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>5399.62522</v>
+        <v>7820.540379999999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>6460.507360000001</v>
+        <v>8905.405640000001</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>11759.71425</v>
+        <v>5757.35919</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>32862.35407</v>
+        <v>59637.47831000001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>25139.4991</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>68531.84659</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>37705.791</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>67.19911999999999</v>
+        <v>67.20336999999999</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>135.7362</v>
+        <v>135.74045</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>0</v>
@@ -1784,13 +1795,13 @@
         <v>181.4663</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>595.62787</v>
+        <v>0</v>
       </c>
       <c r="I26" s="48" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>195.46673</v>
+        <v>1.1</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>0</v>
@@ -1799,13 +1810,18 @@
         <v>697.57659</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>430.17857</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>445.17857</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>92.339</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1823,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>0</v>
+        <v>1.08644</v>
       </c>
       <c r="I27" s="48" t="n">
         <v>0</v>
@@ -1838,52 +1854,62 @@
         <v>263.2</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>43052.76609</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>567.94882</v>
+        <v>803.64473</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>549.9880000000001</v>
+        <v>1220.03666</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>691.23509</v>
+        <v>1695.44313</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>660.43008</v>
+        <v>1827.45769</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>676.97356</v>
+        <v>1337.39872</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>988.26192</v>
+        <v>1437.3946</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1650.83474</v>
+        <v>1206.87487</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>1638.59628</v>
+        <v>1285.3381</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>2465.52576</v>
+        <v>532.20795</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>5729.71721</v>
+        <v>5774.04559</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>6500.90396</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>4719.66901</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>4806.001</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0.20765</v>
@@ -1901,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>0</v>
+        <v>0.15257</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>358.7931</v>
@@ -1916,31 +1942,36 @@
         <v>0</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>0.0199</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>15.586</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>317.95404</v>
+        <v>300.765</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>5.78175</v>
+        <v>10.78175</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>2.73599</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>158.25022</v>
+        <v>164.85025</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>105.18022</v>
+        <v>105.92422</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>58.11515</v>
+        <v>68.26624000000001</v>
       </c>
       <c r="I30" s="48" t="n">
         <v>27.07767</v>
@@ -1957,38 +1988,43 @@
       <c r="M30" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>71.83499999999999</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>265.76555</v>
+        <v>267.31358</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>161.67239</v>
+        <v>267.8924</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>263.48522</v>
+        <v>208.90235</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>311.20176</v>
+        <v>240.79074</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>150.45748</v>
+        <v>150.01636</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>261.2255</v>
+        <v>283.08988</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>237.34001</v>
+        <v>238.71573</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>3.5881</v>
+        <v>343.54616</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>4597.019429999999</v>
+        <v>450.52658</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>532.6302900000001</v>
@@ -1996,50 +2032,60 @@
       <c r="M31" s="48" t="n">
         <v>725.21236</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>85.428</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>1527.51034</v>
+        <v>4825.32434</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1284.73731</v>
+        <v>6378.34861</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1343.99097</v>
+        <v>3028.87114</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>875.31438</v>
+        <v>974.92286</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1295.47509</v>
+        <v>3141.28889</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1091.79088</v>
+        <v>4063.95004</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2435.11343</v>
+        <v>5212.178599999999</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>3469.18201</v>
+        <v>5774.61629</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>3457.05547</v>
+        <v>3939.88258</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>23956.63229</v>
+        <v>50738.2966</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>13609.1029</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>15770.27812</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>27905.466</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>69.77928</v>
@@ -2048,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>77.35884</v>
+        <v>354.80962</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>69.71387</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0.35</v>
@@ -2096,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>0</v>
@@ -2113,89 +2164,104 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>1095.12571</v>
+        <v>6367.410269999999</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>1008.97402</v>
+        <v>1593.3739</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>685.6606700000001</v>
+        <v>1412.21947</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>180.69585</v>
+        <v>136.05761</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>1506.09831</v>
+        <v>1818.08036</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>374.43416</v>
+        <v>331.71262</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>687.96861</v>
+        <v>774.40275</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1109.88908</v>
+        <v>1457.01993</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>1240.11359</v>
+        <v>834.74208</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1648.65204</v>
+        <v>1597.78359</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>3874.10131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>3818.72254</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>4729.136</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>4291.34379</v>
+        <v>5753.36582</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>2765.9093</v>
+        <v>11277.37454</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>3480.29382</v>
+        <v>3099.08355</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1330.14415</v>
+        <v>1356.06493</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>3540.2839</v>
+        <v>10234.02875</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>2046.93858</v>
+        <v>6329.50214</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>4387.49925</v>
+        <v>12045.52732</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>4264.49863</v>
+        <v>8261.951150000001</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>4012.3619</v>
+        <v>4993.17303</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>32937.38619</v>
+        <v>45780.86796</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>14157.47833</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>27500.21773</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>30623.352</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>3.8612</v>
@@ -2204,58 +2270,63 @@
         <v>0.45008</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>11.19118</v>
+        <v>0.59796</v>
       </c>
       <c r="F37" s="48" t="n">
         <v>0.29063</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>0.33175</v>
+        <v>7.00326</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>25.20544</v>
+        <v>22.51981</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>27.65553</v>
+        <v>27.37228</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>139.31247</v>
+        <v>139.89413</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>70.74844</v>
+        <v>69.57194</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>664.6438000000001</v>
+        <v>667.36667</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>167.21521</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>178.56764</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>46.072</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1525.31925</v>
+        <v>1731.51453</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>240.87354</v>
+        <v>210.90265</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>57.8109</v>
+        <v>59.21865</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>323.98752</v>
+        <v>330.58755</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>893.17485</v>
+        <v>1003.27689</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>187.92012</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>536.2127399999999</v>
+        <v>823.63477</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>90.18301</v>
@@ -2264,22 +2335,27 @@
         <v>530.3356600000001</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>845.25316</v>
+        <v>4492.56831</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>179.8293</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>1179.8293</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>3697.665</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>0</v>
+        <v>84.752</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>0</v>
@@ -2308,59 +2384,69 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>29.159</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1627.42222</v>
+        <v>2952.86817</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1087.76319</v>
+        <v>9611.694140000001</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>2825.84671</v>
+        <v>2338.16529</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>594.2711700000001</v>
+        <v>696.23653</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1873.26302</v>
+        <v>8588.377970000001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1642.34439</v>
+        <v>5966.93453</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>3614.19753</v>
+        <v>10009.77979</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>3392.30899</v>
+        <v>7099.49317</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>3124.04565</v>
+        <v>3393.55527</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>31223.28893</v>
+        <v>39589.10946</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>13450.97828</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>25555.83902</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>25142.662</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>77.35884</v>
+        <v>77.35949000000001</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>69.71387</v>
+        <v>371.9974</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,134 +2516,154 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1134.74112</v>
+        <v>1065.12192</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1359.46365</v>
+        <v>1292.21618</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>515.7311599999999</v>
+        <v>329.10425</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>411.54647</v>
+        <v>328.90186</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>686.9593599999999</v>
+        <v>548.81571</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>189.90097</v>
+        <v>150.56002</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>209.43345</v>
+        <v>1184.74048</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>637.80138</v>
+        <v>927.48806</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>287.23215</v>
+        <v>999.7101600000001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>204.2003</v>
+        <v>1031.82352</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>359.45554</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>585.98177</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>1707.794</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>3906.69788</v>
+        <v>7317.12849</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>2288.60463</v>
+        <v>4130.90441</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>2629.86399</v>
+        <v>3200.84124</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>4013.53283</v>
+        <v>4800.39689</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>5415.17362</v>
+        <v>7315.93687</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>6455.65218</v>
+        <v>8057.7666</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>8032.02888</v>
+        <v>11374.24306</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>7566.46518</v>
+        <v>11958.88863</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>7438.336480000001</v>
+        <v>10268.34635</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>27122.78667</v>
+        <v>32226.41074</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>33422.3109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>66974.50881</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>33547.314</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>3887.40008</v>
+        <v>6291.42235</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>2288.60463</v>
+        <v>2879.34419</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>2629.86399</v>
+        <v>3200.84124</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>4013.53283</v>
+        <v>4800.39689</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>5386.69201</v>
+        <v>7040.56426</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>6391.43139</v>
+        <v>7785.0065</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>7808.3005</v>
+        <v>10691.1308</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>7296.443740000001</v>
+        <v>11688.86719</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>7079.28099</v>
+        <v>9806.04946</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>23900.93584</v>
+        <v>29004.55991</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>30126.28715</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>50991.4575</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>32119.628</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>19.2978</v>
+        <v>1025.70614</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>0</v>
+        <v>1251.56022</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>0</v>
@@ -2561,112 +2672,127 @@
         <v>0</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>28.48161</v>
+        <v>275.37261</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>64.22078999999999</v>
+        <v>272.7601</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>223.72838</v>
+        <v>683.11226</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>270.02144</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>359.05549</v>
+        <v>462.29689</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>3221.85083</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>3296.02375</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>15983.05131</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1427.686</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>11996.65478</v>
+        <v>7133.022190000001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>13040.06494</v>
+        <v>6807.15713</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>7969.02876</v>
+        <v>5650.55629</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>8122.47927</v>
+        <v>8515.59648</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>8517.374599999999</v>
+        <v>-740.0172299999999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>9408.121050000002</v>
+        <v>158.67292</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>12535.75787</v>
+        <v>-6726.82331</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>2104.68593</v>
+        <v>-8889.265089999999</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>18587.98858</v>
+        <v>7218.94021</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>17835.54298</v>
+        <v>38138.47739</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>58465.91372</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>40706.48101</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>112246.448</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>1304.84785</v>
+        <v>1799.52184</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>2485.05846</v>
+        <v>2718.53339</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>3604.64974</v>
+        <v>7211.45945</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>687.78864</v>
+        <v>2683.40975</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>3627.49191</v>
+        <v>6103.65729</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1154.57498</v>
+        <v>7967.06063</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>2004.95882</v>
+        <v>2619.38538</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>3678.96633</v>
+        <v>4906.467610000001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>2988.39466</v>
+        <v>3575.38107</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>4962.52182</v>
+        <v>35336.04786999999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>7455.1668</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>8205.390429999999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>10435.288</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>3.60262</v>
+        <v>3.57517</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>0</v>
@@ -2678,340 +2804,383 @@
         <v>0.42163</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>11.33716</v>
+        <v>13.38297</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>20.55183</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>0</v>
+        <v>112.10034</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>691.1486200000001</v>
+        <v>736.8219399999999</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>0</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>108.6631</v>
+        <v>30.46077</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>5.15544</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>4.74929</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>128.776</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>1301.24523</v>
+        <v>1795.94667</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>2485.05846</v>
+        <v>2718.53339</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>3601.92973</v>
+        <v>7208.73944</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>687.3670100000001</v>
+        <v>2682.98812</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>3616.15475</v>
+        <v>6090.27432</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1134.02315</v>
+        <v>7946.5088</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>2004.95882</v>
+        <v>2507.28504</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>2987.81771</v>
+        <v>4169.64567</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>2988.39466</v>
+        <v>3575.38107</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>4853.85872</v>
+        <v>35305.5871</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>7450.01136</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>8200.64114</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>10306.512</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>900.6681600000001</v>
+        <v>3096.5351</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>1020.26416</v>
+        <v>1527.6372</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>14430.31074</v>
+        <v>34152.44395</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>1633.88908</v>
+        <v>1314.73805</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>2341.17346</v>
+        <v>9730.465410000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>5553.00656</v>
+        <v>6708.07666</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>5304.17167</v>
+        <v>14661.28665</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>9649.36074</v>
+        <v>9944.459140000001</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>1715.12333</v>
+        <v>4227.16489</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>36778.07639</v>
+        <v>14094.49061</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>5796.77661</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>18011.1725</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>25039.435</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>10.07343</v>
+        <v>1656.44554</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>10.68363</v>
+        <v>265.52321</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>16.10687</v>
+        <v>432.48336</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>9.698559999999999</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>10.8403</v>
+        <v>5907.11208</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>235.10336</v>
+        <v>9.698559999999999</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>41.4048</v>
+        <v>47.45708999999999</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>321.93471</v>
+        <v>8.69868</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>311.42246</v>
+        <v>8.698559999999999</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>8.698559999999999</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>41.1566</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>135.41088</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>3389.684</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>42.02337</v>
+        <v>59.97243</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>44.17611</v>
+        <v>45.25271</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>496.07141</v>
+        <v>508.98907</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>21.89929</v>
+        <v>23.24318</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>52.49684</v>
+        <v>252.9763</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>571.43043</v>
+        <v>572.59325</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>14.50665</v>
+        <v>111.40722</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>23.16283</v>
+        <v>53.39716000000001</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>71.27359</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>215.01274</v>
+        <v>3.66764</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>35.47089</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>40.87639</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>3361.506</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>848.57136</v>
+        <v>1380.11713</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>965.4044200000001</v>
+        <v>1216.86128</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>13918.13246</v>
+        <v>33210.97152</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>1602.29123</v>
+        <v>1281.79631</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>2277.83632</v>
+        <v>3570.37703</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>4746.472769999999</v>
+        <v>6125.78485</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>5248.26022</v>
+        <v>14502.42234</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>9304.263199999999</v>
+        <v>9882.363300000001</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>1332.42728</v>
+        <v>4147.19274</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>36554.36509000001</v>
+        <v>14082.12441</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>5720.14912</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>17834.88523</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>18288.245</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>12400.83447</v>
+        <v>5836.00893</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>14504.85924</v>
+        <v>7998.05332</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-2856.63224</v>
+        <v>-21290.42821</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>7176.37883</v>
+        <v>9884.268179999999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>9803.69305</v>
+        <v>-4366.82535</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>5009.689469999999</v>
+        <v>1417.65689</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>9236.54502</v>
+        <v>-18768.72458</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-3865.70848</v>
+        <v>-13927.25662</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>19861.25991</v>
+        <v>6567.15639</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-13980.01159</v>
+        <v>59380.03465</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>60124.30391</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>30900.69894</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>97642.30100000001</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>2929.76521</v>
+        <v>3463.35824</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>2800.60267</v>
+        <v>3070.28381</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>2388.2802</v>
+        <v>2307.85421</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>1937.34231</v>
+        <v>2483.43055</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>2621.94687</v>
+        <v>3566.68336</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>2703.45856</v>
+        <v>4165.29546</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>2803.47093</v>
+        <v>2955.92962</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>2424.11183</v>
+        <v>2665.71907</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>4017.60883</v>
+        <v>4005.50239</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>7197.90674</v>
+        <v>16174.61598</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>13733.01809</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>12383.50673</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>20928.018</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>9471.06926</v>
+        <v>2372.65069</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>11704.25657</v>
+        <v>4927.76951</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-5244.91244</v>
+        <v>-23598.28242</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>5239.03652</v>
+        <v>7400.83763</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>7181.74618</v>
+        <v>-7933.50871</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>2306.23091</v>
+        <v>-2747.63857</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>6433.07409</v>
+        <v>-21724.6542</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-6289.820309999999</v>
+        <v>-16592.97569</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>15843.65108</v>
+        <v>2561.654</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-21177.91833</v>
+        <v>43205.41867</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>46391.28582</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>18517.19221</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>76714.283</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>66</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>95</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>